--- a/data/trans_camb/P16A05-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A05-Provincia-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos tranquilizantes en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A05-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A05-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>1.356879605131531</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.3941089301230282</v>
+        <v>0.3941089301230293</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.634821274581438</v>
@@ -655,7 +655,7 @@
         <v>-0.08336551144370041</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-3.151521308822206</v>
+        <v>-3.151521308822205</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>2.852823143262858</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7664010170850968</v>
+        <v>0.9651196886102128</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.307328986283538</v>
+        <v>-1.311264813449648</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.765598652540899</v>
+        <v>-1.896910075497283</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.62034778779337</v>
+        <v>-3.15363418187913</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.689778659415963</v>
+        <v>-3.969500266343393</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-7.17491841399473</v>
+        <v>-6.970976709995906</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.2221820766046929</v>
+        <v>0.219445107039913</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.05984062384954</v>
+        <v>-1.770783558747616</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-3.736906800973779</v>
+        <v>-3.445376381307455</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.829293413325946</v>
+        <v>7.8700132296219</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.443138336581574</v>
+        <v>4.30583339742571</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.795161293256385</v>
+        <v>2.836286513063074</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.62556711890588</v>
+        <v>6.494768028344357</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.150333681139181</v>
+        <v>4.218551783394102</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-0.1773183265623532</v>
+        <v>-0.08446427614922314</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.582329430558531</v>
+        <v>5.594944900647823</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.169341555938149</v>
+        <v>3.240650228051895</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6381656761101674</v>
+        <v>0.7275719311790422</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.6045226734707699</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.1755850579341437</v>
+        <v>0.1755850579341442</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.2388459341741679</v>
@@ -760,7 +760,7 @@
         <v>-0.01217962707499988</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.4604344601939171</v>
+        <v>-0.460434460193917</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.6350662803651285</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.01599554991168194</v>
+        <v>0.04854120897149997</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4535322382464272</v>
+        <v>-0.5125214385075916</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5691900779014557</v>
+        <v>-0.6247943625428809</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3088010619374217</v>
+        <v>-0.3640763050206753</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5255198366506348</v>
+        <v>-0.4676126129047246</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7300657682492671</v>
+        <v>-0.7240850353862412</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.04481786122021181</v>
+        <v>0.02929329232371574</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3487046870723597</v>
+        <v>-0.3185261777742674</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6096536982480987</v>
+        <v>-0.5771563694098605</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>5.852028146058323</v>
+        <v>7.318870948924105</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>4.275693525415138</v>
+        <v>3.362167551450518</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.772560493610805</v>
+        <v>2.889140857702814</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.424458147940736</v>
+        <v>1.457089022298931</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9304385064388698</v>
+        <v>0.9315686069776999</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01246708509783834</v>
+        <v>0.008299216767188007</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.696876498246516</v>
+        <v>1.708519444684891</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9583777847604208</v>
+        <v>0.9265506284363365</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2045249093893032</v>
+        <v>0.2887303267334318</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.246820010680085</v>
+        <v>-0.9961462574138475</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.259279263928368</v>
+        <v>-1.285229792415696</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.078724697162843</v>
+        <v>1.27777327298296</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.694953423479967</v>
+        <v>-1.567215877714562</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.512083481770317</v>
+        <v>-2.408486121929385</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.2279698529450785</v>
+        <v>0.05277283366676291</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.5271807457664497</v>
+        <v>-0.5486200467228719</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.39439401282613</v>
+        <v>-1.308631195199874</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.099100091604101</v>
+        <v>1.351775123258231</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.689883511129144</v>
+        <v>3.844747756166247</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.733701167348067</v>
+        <v>2.782415577219817</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.600068754675396</v>
+        <v>6.63109153405174</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.387693610664261</v>
+        <v>5.227579302411259</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.093272928461512</v>
+        <v>3.781231417551855</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.879883649407025</v>
+        <v>5.821638387230522</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.99021418243011</v>
+        <v>3.78907241446776</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.551427909905544</v>
+        <v>2.584165410888332</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.267588493204276</v>
+        <v>5.559807407846914</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4638342341945762</v>
+        <v>-0.3441473880372661</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4362406750685216</v>
+        <v>-0.432832168902921</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2787801729307443</v>
+        <v>0.2816493010219416</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.227709166510068</v>
+        <v>-0.1920566605257166</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3211759261599444</v>
+        <v>-0.3166478204274843</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.03131389672389303</v>
+        <v>-0.004046949101951046</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1097601253521083</v>
+        <v>-0.1129503884873798</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2443758883864746</v>
+        <v>-0.2456563667147046</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1737659860758488</v>
+        <v>0.2172764382134353</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.37166599929631</v>
+        <v>2.404079255991896</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.769250861492048</v>
+        <v>1.65991589969394</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4.725668438610378</v>
+        <v>4.580357273962679</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.046065887970519</v>
+        <v>1.088683850002959</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8687767361577025</v>
+        <v>0.7950801873122123</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.207466655667897</v>
+        <v>1.157186380167773</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.135844137592889</v>
+        <v>1.061250666246307</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7368510924606809</v>
+        <v>0.7113962598629912</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.444759932098447</v>
+        <v>1.507438552209273</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>3.418965647897921</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>5.076491270689376</v>
+        <v>5.076491270689377</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.8855649439765934</v>
+        <v>-0.8466976030742025</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.278245785056216</v>
+        <v>-0.9157046447149932</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01831010511087859</v>
+        <v>0.1098622647620307</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6312996292018198</v>
+        <v>0.8670050099973247</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.254503718466507</v>
+        <v>3.138838909475723</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.245467080517548</v>
+        <v>5.252880268515589</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5161363460809339</v>
+        <v>0.6417924127716056</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.760748131858775</v>
+        <v>1.613330137951893</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.473024083656382</v>
+        <v>3.489507652241342</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.742717759560236</v>
+        <v>4.948791126495139</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.829769604358475</v>
+        <v>4.111381740964994</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.239643585000417</v>
+        <v>5.183449379610297</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.205208276543703</v>
+        <v>4.258966720941864</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.507352078442963</v>
+        <v>8.186483582494605</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.604558788536782</v>
+        <v>9.686712259763498</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.893388290058068</v>
+        <v>3.92291560808866</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.354102008412761</v>
+        <v>5.306036870413104</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.917396717747396</v>
+        <v>7.110871883655853</v>
       </c>
     </row>
     <row r="19">
@@ -1208,25 +1208,25 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3971788645825136</v>
+        <v>-0.4260199749843896</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.590915248967503</v>
+        <v>-0.4186286440098776</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2033668756593713</v>
+        <v>-0.08850634746186951</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>0.04533065610384562</v>
+        <v>0.1669593310847766</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.8453376431956113</v>
+        <v>0.8489581977612409</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>1.683552258624618</v>
+        <v>1.8508186745125</v>
       </c>
     </row>
     <row r="21">
@@ -1237,25 +1237,25 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>5.042069651898345</v>
+        <v>5.295027534075551</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>3.946388261313692</v>
+        <v>4.87836193137251</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>6.341297574987742</v>
+        <v>6.606362102570904</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>6.885017644181713</v>
+        <v>6.671645002778557</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>9.298614235737723</v>
+        <v>10.08441239613788</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>12.87059786366241</v>
+        <v>13.21994095462935</v>
       </c>
     </row>
     <row r="22">
@@ -1294,7 +1294,7 @@
         <v>3.794491141230792</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.496558472301642</v>
+        <v>0.4965584723016423</v>
       </c>
     </row>
     <row r="23">
@@ -1305,31 +1305,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.7397015155793292</v>
+        <v>-0.8617785640127847</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3618009191926679</v>
+        <v>0.8821678159318648</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.9964584410254268</v>
+        <v>-0.8891184922703533</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.692402140386526</v>
+        <v>3.16491336059268</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.291393441079434</v>
+        <v>1.170510452750806</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.792844178177911</v>
+        <v>-2.803338061318526</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.803056931299564</v>
+        <v>1.738197415293859</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.877261818580161</v>
+        <v>1.844177557874998</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.298826666562342</v>
+        <v>-1.084383657219232</v>
       </c>
     </row>
     <row r="24">
@@ -1340,31 +1340,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.68294625432788</v>
+        <v>3.494942643292549</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.429520823001983</v>
+        <v>5.91012487920254</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.264965783096416</v>
+        <v>3.56754626669984</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.07600230582867</v>
+        <v>10.36504473271498</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.181503825307642</v>
+        <v>8.235369688537046</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.478966456739427</v>
+        <v>2.455214074470907</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.998822056132314</v>
+        <v>5.962881706577147</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.226214133865921</v>
+        <v>6.304457406541481</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.272009134485577</v>
+        <v>2.197753215806403</v>
       </c>
     </row>
     <row r="25">
@@ -1399,7 +1399,7 @@
         <v>1.449568785892705</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1896949116569956</v>
+        <v>0.1896949116569957</v>
       </c>
     </row>
     <row r="26">
@@ -1410,31 +1410,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6406535776277009</v>
+        <v>-0.6095267069522281</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.07618462249188088</v>
+        <v>0.1098716227480345</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6648249986063374</v>
+        <v>-0.6892843056380012</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.4033732129300238</v>
+        <v>0.534423889159912</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1327402743616625</v>
+        <v>0.1725030638463209</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.511103144565497</v>
+        <v>-0.5004448611963409</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4545050066469498</v>
+        <v>0.4418135406073772</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.4659082559191373</v>
+        <v>0.4294666273064255</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3911331226566298</v>
+        <v>-0.3357705126271184</v>
       </c>
     </row>
     <row r="27">
@@ -1445,31 +1445,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6.665320750679299</v>
+        <v>7.744410818006587</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>11.08024433050111</v>
+        <v>12.07160396003593</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>6.276526895143427</v>
+        <v>6.867460596124146</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>3.564199857620499</v>
+        <v>4.007021825002515</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.984311827405049</v>
+        <v>3.189473517792362</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.042461960882675</v>
+        <v>0.9632644843961035</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>3.607455755550962</v>
+        <v>3.183750314938083</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>3.40746042079922</v>
+        <v>3.395866595467838</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.24687041594983</v>
+        <v>1.168555289051669</v>
       </c>
     </row>
     <row r="28">
@@ -1499,7 +1499,7 @@
         <v>7.261558176919058</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>4.217016055950216</v>
+        <v>4.217016055950214</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>5.874758921600101</v>
@@ -1519,31 +1519,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.052642395639208</v>
+        <v>-1.66677985929131</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.027500545764367</v>
+        <v>-1.110136091671169</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.530422160275851</v>
+        <v>-2.444280054038273</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4.1470696917501</v>
+        <v>3.858339763962529</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.699606338549654</v>
+        <v>1.492914997698267</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.07887392852538344</v>
+        <v>-0.2387533572338112</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.256738115243607</v>
+        <v>2.373173990352108</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.281521172706543</v>
+        <v>1.755746449719187</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.3124869322444305</v>
+        <v>-0.2468128419796424</v>
       </c>
     </row>
     <row r="30">
@@ -1554,31 +1554,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.617322779298175</v>
+        <v>5.425589104273834</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.582689798395714</v>
+        <v>6.129899268362461</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.46409774676306</v>
+        <v>2.381249479187097</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16.02400364519963</v>
+        <v>15.06126963333161</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>12.29717677533274</v>
+        <v>12.62388691288178</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>8.207665484743023</v>
+        <v>7.867347008407181</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>9.342183109296901</v>
+        <v>9.564957578606478</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>7.776293196957351</v>
+        <v>8.320592860716875</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.683959066248723</v>
+        <v>4.681901501766196</v>
       </c>
     </row>
     <row r="31">
@@ -1604,7 +1604,7 @@
         <v>1.236689601650464</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.7181846897492415</v>
+        <v>0.7181846897492412</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>1.436249705112101</v>
@@ -1624,31 +1624,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4949687907334478</v>
+        <v>-0.6611053065457324</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4381323612990042</v>
+        <v>-0.4166311713560001</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6919609135069534</v>
+        <v>-0.6665144421660548</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.4567628893594502</v>
+        <v>0.3336084103056355</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1975323168811</v>
+        <v>0.1374344118149073</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.002858922244076694</v>
+        <v>-0.05605008282832856</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.349111315497033</v>
+        <v>0.3752552182878791</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1967966883104463</v>
+        <v>0.2543417977233375</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.06266564181990385</v>
+        <v>-0.05650803010883169</v>
       </c>
     </row>
     <row r="33">
@@ -1659,31 +1659,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>5.792499011708873</v>
+        <v>5.014205240050187</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>6.58878546422444</v>
+        <v>6.451969232307588</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.989846544676908</v>
+        <v>2.553929438758013</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>4.4263315169619</v>
+        <v>3.718484690163141</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>3.257101526847511</v>
+        <v>3.537446975317072</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.541385832553238</v>
+        <v>2.228197236558672</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>3.33070347219659</v>
+        <v>3.392052832535392</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>2.711930912865877</v>
+        <v>2.927813328642579</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.694120103049696</v>
+        <v>1.845234340637533</v>
       </c>
     </row>
     <row r="34">
@@ -1704,7 +1704,7 @@
         <v>2.461026274553221</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>4.33371962028662</v>
+        <v>4.333719620286621</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>2.100685991008104</v>
@@ -1713,7 +1713,7 @@
         <v>2.012728742472909</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>7.402651371987143</v>
+        <v>7.40265137198714</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>1.975005410202525</v>
@@ -1733,31 +1733,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.02215884575775684</v>
+        <v>0.07241192316820089</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.4534000467316611</v>
+        <v>0.3623935485763568</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2.195664086839354</v>
+        <v>2.08093171608008</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.478480547231751</v>
+        <v>-1.015812456450712</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.403089251437885</v>
+        <v>-1.429880251937197</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>3.68100476738552</v>
+        <v>3.88629216537212</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.122498072406614</v>
+        <v>0.03073089485320593</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.2931957688968818</v>
+        <v>0.1609608916680231</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>3.777349847585278</v>
+        <v>3.678116673453143</v>
       </c>
     </row>
     <row r="36">
@@ -1768,31 +1768,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.075899398231858</v>
+        <v>4.309523825801965</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.401439517985071</v>
+        <v>5.652037826787275</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6.9095842599367</v>
+        <v>6.821723739825764</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5.434002523410959</v>
+        <v>5.551670884545577</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>5.627551187869547</v>
+        <v>5.541051145794166</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>10.64081892919433</v>
+        <v>10.68951321678365</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>4.217074647289918</v>
+        <v>4.176296748952584</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>4.586163791932658</v>
+        <v>4.28821573812934</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>8.019662354887748</v>
+        <v>8.002509315880129</v>
       </c>
     </row>
     <row r="37">
@@ -1809,7 +1809,7 @@
         <v>3.522264727556959</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>6.202496867055288</v>
+        <v>6.20249686705529</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.6376175009671814</v>
@@ -1818,7 +1818,7 @@
         <v>0.6109199929897772</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>2.246913669411675</v>
+        <v>2.246913669411674</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.9806459896955628</v>
@@ -1837,30 +1837,32 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C38" s="6" t="inlineStr"/>
+      <c r="C38" s="6" t="n">
+        <v>-0.4830435449952052</v>
+      </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2740667798565121</v>
+        <v>-0.4489939618009243</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.4748758742573296</v>
+        <v>0.8043328001517495</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.357715158701646</v>
+        <v>-0.2925380798461806</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.3551209178469488</v>
+        <v>-0.3995008535387646</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5184962765769771</v>
+        <v>0.6397849810591942</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.01933781226416917</v>
+        <v>-0.0479198798181719</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.009632132314710736</v>
+        <v>-0.0212126733088373</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1.207778259296775</v>
+        <v>1.031904013348776</v>
       </c>
     </row>
     <row r="39">
@@ -1874,22 +1876,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>2.67791001816534</v>
+        <v>2.912488700673205</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>3.18536336635015</v>
+        <v>2.638660249213756</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>5.286922888657272</v>
+        <v>6.06269974880263</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>3.266327236541281</v>
+        <v>3.065489242364728</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>3.504170051573863</v>
+        <v>3.540260253762936</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>6.444007144365565</v>
+        <v>6.884301282459917</v>
       </c>
     </row>
     <row r="40">
@@ -1928,7 +1930,7 @@
         <v>1.526006684854172</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>2.725396968084357</v>
+        <v>2.725396968084358</v>
       </c>
     </row>
     <row r="41">
@@ -1939,31 +1941,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.534423496944141</v>
+        <v>-1.441112441580223</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.061025161553114</v>
+        <v>-1.09441738419479</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.6996303028314277</v>
+        <v>-0.7119093966085926</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-3.124177584203686</v>
+        <v>-3.048297268196397</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.4748087170459873</v>
+        <v>-0.5790942580528502</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>1.618464715490668</v>
+        <v>1.459543512476219</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.696936168911186</v>
+        <v>-1.717644685314492</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.1314216409102949</v>
+        <v>-0.0928861360458938</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>1.079802068020999</v>
+        <v>1.207716489655533</v>
       </c>
     </row>
     <row r="42">
@@ -1974,31 +1976,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.365059743532445</v>
+        <v>2.474975417781666</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.841243852376493</v>
+        <v>2.906280467899549</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3.323349383741474</v>
+        <v>3.09865051207726</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.410115423381878</v>
+        <v>1.493819155802597</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.916603662394771</v>
+        <v>4.783657865513066</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>6.635271329936784</v>
+        <v>6.737904026391002</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.303437645086276</v>
+        <v>1.341668874661198</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.216072647405555</v>
+        <v>3.154683558402505</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>4.386075553069455</v>
+        <v>4.268200858430149</v>
       </c>
     </row>
     <row r="43">
@@ -2033,7 +2035,7 @@
         <v>0.3980246686160589</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.7108587634874294</v>
+        <v>0.7108587634874297</v>
       </c>
     </row>
     <row r="44">
@@ -2044,31 +2046,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4560711704908677</v>
+        <v>-0.4687460231487908</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3336555500269234</v>
+        <v>-0.3206734691944739</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2301980036911307</v>
+        <v>-0.2349499402400535</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.5098901211655336</v>
+        <v>-0.5000779945089029</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.09268353258270852</v>
+        <v>-0.1142174386464299</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2560282463356048</v>
+        <v>0.2264995851732284</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.3826561631300022</v>
+        <v>-0.3686461798495766</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.03506994001203222</v>
+        <v>-0.02767921430737608</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.2011796027409093</v>
+        <v>0.2459919205872959</v>
       </c>
     </row>
     <row r="45">
@@ -2079,31 +2081,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.327368423444414</v>
+        <v>1.50395856346238</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.618856532117555</v>
+        <v>1.7694936684549</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.048196732121933</v>
+        <v>1.797299311863216</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3896862764998936</v>
+        <v>0.4008640981076103</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.248446592890149</v>
+        <v>1.188427908636247</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.775025525450703</v>
+        <v>1.835930029827142</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4256813115723065</v>
+        <v>0.4429520475198165</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.085202231182144</v>
+        <v>1.022002302183286</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.425154062355873</v>
+        <v>1.407071104714006</v>
       </c>
     </row>
     <row r="46">
@@ -2133,7 +2135,7 @@
         <v>0.7205528724873802</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>2.608321912987289</v>
+        <v>2.608321912987291</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-1.119586518733704</v>
@@ -2153,31 +2155,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-3.973150738354896</v>
+        <v>-3.822630300686446</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-3.25620646912965</v>
+        <v>-3.206449300598842</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.473091211289239</v>
+        <v>-1.489804821722999</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-3.296005456946149</v>
+        <v>-3.200369313168328</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-2.064098083344534</v>
+        <v>-2.007248321494467</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.06148904380210765</v>
+        <v>-0.2972040737560582</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-2.784204811463246</v>
+        <v>-2.818754461433896</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-1.824646711105892</v>
+        <v>-2.073115011670166</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.07309519673072319</v>
+        <v>-0.2194121127069586</v>
       </c>
     </row>
     <row r="48">
@@ -2188,31 +2190,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-0.02102350848377806</v>
+        <v>0.05066665821505301</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.7378402131100049</v>
+        <v>0.5635616862369655</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.792164120697888</v>
+        <v>2.684651497469373</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>2.136723339964758</v>
+        <v>2.097628051438446</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>3.651324484026936</v>
+        <v>3.51373470997424</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>5.075797153232931</v>
+        <v>5.143522138564944</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.5641982598521621</v>
+        <v>0.5940948991878738</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.564534435706692</v>
+        <v>1.506830201386955</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>3.339732680446972</v>
+        <v>3.204640418097831</v>
       </c>
     </row>
     <row r="49">
@@ -2238,7 +2240,7 @@
         <v>0.09402789359363291</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.340370602431545</v>
+        <v>0.3403706024315452</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.1830651037869901</v>
@@ -2258,31 +2260,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.6975719283558698</v>
+        <v>-0.6823827429987825</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.5700545990073639</v>
+        <v>-0.5695979114297038</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2715354445773918</v>
+        <v>-0.2647483453633449</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.3519996548760168</v>
+        <v>-0.3588823523703022</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.2308410263455387</v>
+        <v>-0.2364600226291879</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.01441400796906878</v>
+        <v>-0.03515166334151505</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.3992447113169484</v>
+        <v>-0.4039661175431248</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.2751529006403359</v>
+        <v>-0.2969744023449495</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.01866897998496322</v>
+        <v>-0.0336167176864836</v>
       </c>
     </row>
     <row r="51">
@@ -2293,31 +2295,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.01516262228928767</v>
+        <v>0.04197568890402282</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.2118499322186647</v>
+        <v>0.1669451478775408</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.7677263382895264</v>
+        <v>0.7919570283238255</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.3343922794341212</v>
+        <v>0.3614334191135841</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.597129046460219</v>
+        <v>0.5864577064770239</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.821224369173558</v>
+        <v>0.826448877914552</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1139921260064339</v>
+        <v>0.114774121800133</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.3069533194001828</v>
+        <v>0.2953008962246806</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.6600590547677198</v>
+        <v>0.6014325473873464</v>
       </c>
     </row>
     <row r="52">
@@ -2347,7 +2349,7 @@
         <v>2.305088435582453</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>3.086081752780349</v>
+        <v>3.086081752780347</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>1.297663962499146</v>
@@ -2356,7 +2358,7 @@
         <v>1.626040548662887</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>2.418405875604181</v>
+        <v>2.418405875604182</v>
       </c>
     </row>
     <row r="53">
@@ -2367,31 +2369,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.09334181086066293</v>
+        <v>-0.02862278686524345</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>0.05972887648799836</v>
+        <v>0.1282204596242932</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>0.6875786019044284</v>
+        <v>0.8787205230301425</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>0.6652956667534335</v>
+        <v>0.604170122161468</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>1.120056974993788</v>
+        <v>1.016226501297939</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>1.9758664560578</v>
+        <v>1.998496385560168</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>0.5513431164198285</v>
+        <v>0.6458980972582318</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>0.925080849700424</v>
+        <v>0.887069025075058</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>1.746121137065828</v>
+        <v>1.707122464468465</v>
       </c>
     </row>
     <row r="54">
@@ -2402,31 +2404,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>1.666832059503698</v>
+        <v>1.719981801507288</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>1.782157088875023</v>
+        <v>1.87027521824339</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>2.47794798967496</v>
+        <v>2.668932191307515</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>3.031117583195762</v>
+        <v>2.948855471186094</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>3.502774629837385</v>
+        <v>3.5352826213294</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>4.24286430263368</v>
+        <v>4.110487097087534</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>2.05567566067157</v>
+        <v>2.055683900944759</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>2.349740318955702</v>
+        <v>2.434035537937447</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>3.113801618681024</v>
+        <v>3.036919469456609</v>
       </c>
     </row>
     <row r="55">
@@ -2443,7 +2445,7 @@
         <v>0.3486191772010546</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.6504018022723776</v>
+        <v>0.6504018022723774</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.3369302025534935</v>
@@ -2452,7 +2454,7 @@
         <v>0.4324098600064086</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.5789158273013901</v>
+        <v>0.5789158273013896</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.3262531394157355</v>
@@ -2461,7 +2463,7 @@
         <v>0.4088121803096625</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.6080252916770383</v>
+        <v>0.6080252916770387</v>
       </c>
     </row>
     <row r="56">
@@ -2472,31 +2474,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.03558634257476315</v>
+        <v>-0.01253311858829447</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.01593623857403018</v>
+        <v>0.03266665200735361</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.2146313820188481</v>
+        <v>0.2966453589127588</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.1113552324009981</v>
+        <v>0.09802306418956731</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.1857097376321045</v>
+        <v>0.1666749514512523</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.3293811923171386</v>
+        <v>0.3236162215123238</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1304098957769113</v>
+        <v>0.1540391317471579</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.2069190858996437</v>
+        <v>0.2015266273713338</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.3996519797119414</v>
+        <v>0.3893202273906968</v>
       </c>
     </row>
     <row r="57">
@@ -2507,31 +2509,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.731966315383575</v>
+        <v>0.7678494531162547</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.82272352838878</v>
+        <v>0.8596580790278847</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>1.120780554481852</v>
+        <v>1.235630194984883</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.6228451247664959</v>
+        <v>0.6041345348423924</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.747089634857664</v>
+        <v>0.7374344585759268</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.9100614519753216</v>
+        <v>0.8551314576287248</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.5613009789367566</v>
+        <v>0.5585859729694311</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.6455747762859625</v>
+        <v>0.6726089481313972</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.8594960629831337</v>
+        <v>0.8384339595993034</v>
       </c>
     </row>
     <row r="58">
